--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/销售费用.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/销售费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33.79038</v>
-      </c>
-      <c r="C2" t="n">
-        <v>103.45168</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.538169999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02493</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.42781</v>
-      </c>
-      <c r="G2" t="n">
-        <v>76.73377000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.897220000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>122.93485</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.82396</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1178.06025</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.80591</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.11356</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.35137</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.94726</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15.64826</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.35771</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4.7551</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.83014</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.99002</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.67577</v>
-      </c>
-      <c r="V2" t="n">
-        <v>16.08385</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10.10307</v>
-      </c>
-      <c r="X2" t="n">
-        <v>77.95725</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>21.9349</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>120.47963</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>55.06354</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.70541</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>32.17384</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.6661</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>26.6282</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10.81681</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.95985</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11.24708</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>60.44457</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.98204</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34.77635</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>43.39474</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>95.28135</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>60.02332</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>3.51691</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>31.75844</v>
-      </c>
-      <c r="C3" t="n">
-        <v>118.10194</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.15929</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01291</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.64949</v>
-      </c>
-      <c r="G3" t="n">
-        <v>85.38888</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.72038</v>
-      </c>
-      <c r="I3" t="n">
-        <v>126.0234</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.4224</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1360.08812</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8.213520000000001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.55557</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.38421</v>
-      </c>
-      <c r="O3" t="n">
-        <v>52.84242</v>
-      </c>
-      <c r="P3" t="n">
-        <v>18.75672</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.21575</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.83295</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.5671</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.22168</v>
-      </c>
-      <c r="U3" t="n">
-        <v>10.55548</v>
-      </c>
-      <c r="V3" t="n">
-        <v>64.21347</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.876760000000001</v>
-      </c>
-      <c r="X3" t="n">
-        <v>118.37754</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>30.90288</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>135.0381</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>56.66163</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3.03696</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>37.50047</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>26.84374</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>25.86002</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12.28095</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>16.03135</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.70589</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>57.54142</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12.63043</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>35.12698</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>36.97444</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>99.56063</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>58.95385</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3.60855</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>36.93478</v>
-      </c>
-      <c r="C4" t="n">
-        <v>154.66532</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.98032</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02856</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.51491</v>
-      </c>
-      <c r="G4" t="n">
-        <v>89.47217999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.74152</v>
-      </c>
-      <c r="I4" t="n">
-        <v>139.12526</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.28294</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1467.43832</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.70861</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.44233</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.45156</v>
-      </c>
-      <c r="O4" t="n">
-        <v>62.53814</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22.03082</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.17558</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.25263</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.10345</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.43768</v>
-      </c>
-      <c r="U4" t="n">
-        <v>11.44034</v>
-      </c>
-      <c r="V4" t="n">
-        <v>66.42519</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10.91333</v>
-      </c>
-      <c r="X4" t="n">
-        <v>129.39813</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>34.32953</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>139.45473</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>61.34049</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.72069</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>39.63826</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>19.98178</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>25.68365</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>14.48648</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17.90007</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10.94215</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>55.84245</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>14.75447</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>40.07348</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>38.97622</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>104.09453</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>62.73425</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.89222</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
